--- a/xlsx/越南文字母_intext.xlsx
+++ b/xlsx/越南文字母_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
   <si>
     <t>越南文字母</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>機器翻譯</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_越南文字母</t>
+    <t>机器翻译</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_越南文字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%96%83</t>
   </si>
   <si>
-    <t>漢喃</t>
+    <t>汉喃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E5%BE%B7%E7%BE%85%E8%8C%B2</t>
   </si>
   <si>
-    <t>亞歷山大·德羅茲</t>
+    <t>亚历山大·德罗兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>變音符號</t>
+    <t>变音符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E8%AA%BF</t>
   </si>
   <si>
-    <t>聲調</t>
+    <t>声调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E6%AF%8D</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>外來語</t>
+    <t>外来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%C6%AF</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9F%B3%E6%A8%99</t>
   </si>
   <si>
-    <t>國際音標</t>
+    <t>国际音标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E%E9%9F%B3%E7%B3%BB</t>
   </si>
   <si>
-    <t>越南語音系</t>
+    <t>越南语音系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%85%83%E9%9F%B3</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>後元音</t>
+    <t>后元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%AD%E5%85%83%E9%9F%B3</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%96%89%E5%85%83%E9%9F%B3</t>
   </si>
   <si>
-    <t>半閉元音</t>
+    <t>半闭元音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E5%BC%80%E5%85%83%E9%9F%B3</t>
@@ -407,15 +407,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E9%BD%A6%E9%A1%8E%E5%A1%9E%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>清齦顎塞擦音</t>
+    <t>清龈颚塞擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD%E9%9F%B3%E7%B3%BB</t>
   </si>
   <si>
-    <t>越南语音系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%8A%E9%BD%BF%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%81%E8%BB%9F%E9%A1%8E%E6%93%A6%E9%9F%B3</t>
   </si>
   <si>
-    <t>濁軟顎擦音</t>
+    <t>浊软颚擦音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%8A%E7%A1%AC%E9%A2%9A%E6%93%A6%E9%9F%B3</t>
@@ -509,13 +506,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BB%E8%85%B9</t>
   </si>
   <si>
-    <t>韻腹</t>
+    <t>韵腹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BB%E5%B0%BE</t>
   </si>
   <si>
-    <t>韻尾</t>
+    <t>韵尾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%97</t>
@@ -551,25 +548,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%AF%AB</t>
   </si>
   <si>
-    <t>轉寫</t>
+    <t>转写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%AD%97</t>
   </si>
   <si>
-    <t>羅馬字</t>
+    <t>罗马字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BC%E9%9F%B3</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
+    <t>汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Unicode</t>
@@ -641,13 +638,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E%E8%AA%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>越南語語法</t>
+    <t>越南语语法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E9%9F%B3%E7%AC%A6</t>
@@ -665,31 +659,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%88%8E_(%E9%99%84%E5%8A%A0%E7%AC%A6%E8%99%9F)</t>
   </si>
   <si>
-    <t>上鈎 (附加符號)</t>
+    <t>上钩 (附加符号)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%B5%AA%E8%99%9F</t>
   </si>
   <si>
-    <t>波浪號</t>
+    <t>波浪号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9E_(%E9%99%84%E5%8A%A0%E7%AC%A6%E8%99%9F)</t>
   </si>
   <si>
-    <t>點 (附加符號)</t>
+    <t>点 (附加符号)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E%E5%AD%97%E6%9B%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>國語字書法</t>
+    <t>国语字书法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E8%AA%BF</t>
   </si>
   <si>
-    <t>變調</t>
+    <t>变调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%8C%96</t>
@@ -707,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/BGN/PCGN%E7%BE%85%E9%A6%AC%E5%8C%96%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>BGN/PCGN羅馬化系統</t>
+    <t>BGN/PCGN罗马化系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/GOST_16876-71</t>
@@ -725,25 +719,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>耶魯拼音</t>
+    <t>耶鲁拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%8C%B2%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>吉茲字母</t>
+    <t>吉兹字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E%E7%BE%85%E9%A6%AC%E5%8C%96</t>
   </si>
   <si>
-    <t>阿拉伯語羅馬化</t>
+    <t>阿拉伯语罗马化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%8B%89%E5%A7%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>亞拉姆語</t>
+    <t>亚拉姆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_9985</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%9A%84%E4%B8%AD%E6%96%87%E7%BE%85%E9%A6%AC%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>台灣的中文羅馬拼音</t>
+    <t>台湾的中文罗马拼音</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chinese_language_romanisation_in_Singapore</t>
@@ -881,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%AA%9E%E6%8B%89%E4%B8%81%E5%8C%96</t>
   </si>
   <si>
-    <t>朝鮮語拉丁化</t>
+    <t>朝鲜语拉丁化</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Romanization_of_Lao</t>
@@ -911,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>敘利亞語</t>
+    <t>叙利亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E6%96%87</t>
@@ -947,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4166,7 +4160,7 @@
         <v>131</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4221,10 +4215,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101" t="s">
         <v>133</v>
-      </c>
-      <c r="F101" t="s">
-        <v>134</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4250,10 +4244,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" t="s">
         <v>135</v>
-      </c>
-      <c r="F102" t="s">
-        <v>136</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4279,10 +4273,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" t="s">
         <v>137</v>
-      </c>
-      <c r="F103" t="s">
-        <v>138</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4308,10 +4302,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>138</v>
+      </c>
+      <c r="F104" t="s">
         <v>139</v>
-      </c>
-      <c r="F104" t="s">
-        <v>140</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4337,10 +4331,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>140</v>
+      </c>
+      <c r="F105" t="s">
         <v>141</v>
-      </c>
-      <c r="F105" t="s">
-        <v>142</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4366,10 +4360,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>142</v>
+      </c>
+      <c r="F106" t="s">
         <v>143</v>
-      </c>
-      <c r="F106" t="s">
-        <v>144</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4395,10 +4389,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>144</v>
+      </c>
+      <c r="F107" t="s">
         <v>145</v>
-      </c>
-      <c r="F107" t="s">
-        <v>146</v>
       </c>
       <c r="G107" t="n">
         <v>12</v>
@@ -4424,10 +4418,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>146</v>
+      </c>
+      <c r="F108" t="s">
         <v>147</v>
-      </c>
-      <c r="F108" t="s">
-        <v>148</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4456,7 +4450,7 @@
         <v>131</v>
       </c>
       <c r="F109" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4482,10 +4476,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>142</v>
+      </c>
+      <c r="F110" t="s">
         <v>143</v>
-      </c>
-      <c r="F110" t="s">
-        <v>144</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4511,10 +4505,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>148</v>
+      </c>
+      <c r="F111" t="s">
         <v>149</v>
-      </c>
-      <c r="F111" t="s">
-        <v>150</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4540,10 +4534,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>150</v>
+      </c>
+      <c r="F112" t="s">
         <v>151</v>
-      </c>
-      <c r="F112" t="s">
-        <v>152</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4569,10 +4563,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>152</v>
+      </c>
+      <c r="F113" t="s">
         <v>153</v>
-      </c>
-      <c r="F113" t="s">
-        <v>154</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -4598,10 +4592,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>142</v>
+      </c>
+      <c r="F114" t="s">
         <v>143</v>
-      </c>
-      <c r="F114" t="s">
-        <v>144</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4627,10 +4621,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>154</v>
+      </c>
+      <c r="F115" t="s">
         <v>155</v>
-      </c>
-      <c r="F115" t="s">
-        <v>156</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4656,10 +4650,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>156</v>
+      </c>
+      <c r="F116" t="s">
         <v>157</v>
-      </c>
-      <c r="F116" t="s">
-        <v>158</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4685,10 +4679,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>158</v>
+      </c>
+      <c r="F117" t="s">
         <v>159</v>
-      </c>
-      <c r="F117" t="s">
-        <v>160</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4714,10 +4708,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>160</v>
+      </c>
+      <c r="F118" t="s">
         <v>161</v>
-      </c>
-      <c r="F118" t="s">
-        <v>162</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -4801,10 +4795,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>162</v>
+      </c>
+      <c r="F121" t="s">
         <v>163</v>
-      </c>
-      <c r="F121" t="s">
-        <v>164</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4830,10 +4824,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>164</v>
+      </c>
+      <c r="F122" t="s">
         <v>165</v>
-      </c>
-      <c r="F122" t="s">
-        <v>166</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4859,10 +4853,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>166</v>
+      </c>
+      <c r="F123" t="s">
         <v>167</v>
-      </c>
-      <c r="F123" t="s">
-        <v>168</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4888,10 +4882,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>168</v>
+      </c>
+      <c r="F124" t="s">
         <v>169</v>
-      </c>
-      <c r="F124" t="s">
-        <v>170</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -4917,10 +4911,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>170</v>
+      </c>
+      <c r="F125" t="s">
         <v>171</v>
-      </c>
-      <c r="F125" t="s">
-        <v>172</v>
       </c>
       <c r="G125" t="n">
         <v>5</v>
@@ -4946,10 +4940,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>172</v>
+      </c>
+      <c r="F126" t="s">
         <v>173</v>
-      </c>
-      <c r="F126" t="s">
-        <v>174</v>
       </c>
       <c r="G126" t="n">
         <v>6</v>
@@ -4975,10 +4969,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>174</v>
+      </c>
+      <c r="F127" t="s">
         <v>175</v>
-      </c>
-      <c r="F127" t="s">
-        <v>176</v>
       </c>
       <c r="G127" t="n">
         <v>95</v>
@@ -5004,10 +4998,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>176</v>
+      </c>
+      <c r="F128" t="s">
         <v>177</v>
-      </c>
-      <c r="F128" t="s">
-        <v>178</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5033,10 +5027,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>178</v>
+      </c>
+      <c r="F129" t="s">
         <v>179</v>
-      </c>
-      <c r="F129" t="s">
-        <v>180</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -5062,10 +5056,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>180</v>
+      </c>
+      <c r="F130" t="s">
         <v>181</v>
-      </c>
-      <c r="F130" t="s">
-        <v>182</v>
       </c>
       <c r="G130" t="n">
         <v>8</v>
@@ -5091,10 +5085,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>182</v>
+      </c>
+      <c r="F131" t="s">
         <v>183</v>
-      </c>
-      <c r="F131" t="s">
-        <v>184</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5120,10 +5114,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>184</v>
+      </c>
+      <c r="F132" t="s">
         <v>185</v>
-      </c>
-      <c r="F132" t="s">
-        <v>186</v>
       </c>
       <c r="G132" t="n">
         <v>4</v>
@@ -5149,10 +5143,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>186</v>
+      </c>
+      <c r="F133" t="s">
         <v>187</v>
-      </c>
-      <c r="F133" t="s">
-        <v>188</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5178,10 +5172,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>188</v>
+      </c>
+      <c r="F134" t="s">
         <v>189</v>
-      </c>
-      <c r="F134" t="s">
-        <v>190</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5207,10 +5201,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>190</v>
+      </c>
+      <c r="F135" t="s">
         <v>191</v>
-      </c>
-      <c r="F135" t="s">
-        <v>192</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5236,10 +5230,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>192</v>
+      </c>
+      <c r="F136" t="s">
         <v>193</v>
-      </c>
-      <c r="F136" t="s">
-        <v>194</v>
       </c>
       <c r="G136" t="n">
         <v>9</v>
@@ -5265,10 +5259,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>194</v>
+      </c>
+      <c r="F137" t="s">
         <v>195</v>
-      </c>
-      <c r="F137" t="s">
-        <v>196</v>
       </c>
       <c r="G137" t="n">
         <v>4</v>
@@ -5294,10 +5288,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>196</v>
+      </c>
+      <c r="F138" t="s">
         <v>197</v>
-      </c>
-      <c r="F138" t="s">
-        <v>198</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5323,10 +5317,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>198</v>
+      </c>
+      <c r="F139" t="s">
         <v>199</v>
-      </c>
-      <c r="F139" t="s">
-        <v>200</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5352,10 +5346,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F140" t="s">
         <v>201</v>
-      </c>
-      <c r="F140" t="s">
-        <v>202</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5381,10 +5375,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>202</v>
+      </c>
+      <c r="F141" t="s">
         <v>203</v>
-      </c>
-      <c r="F141" t="s">
-        <v>204</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5410,10 +5404,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>204</v>
+      </c>
+      <c r="F142" t="s">
         <v>205</v>
-      </c>
-      <c r="F142" t="s">
-        <v>206</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5439,10 +5433,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F143" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="G143" t="n">
         <v>30</v>
@@ -5468,10 +5462,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F144" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5497,10 +5491,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F145" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5526,10 +5520,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F146" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5555,10 +5549,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F147" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5584,10 +5578,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F148" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5613,10 +5607,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F149" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5642,10 +5636,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F150" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5671,10 +5665,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F151" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5700,10 +5694,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F152" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G152" t="n">
         <v>34</v>
@@ -5729,10 +5723,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F153" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5758,10 +5752,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F154" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5787,10 +5781,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F155" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -5816,10 +5810,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F156" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5845,10 +5839,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F157" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5874,10 +5868,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F158" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5903,10 +5897,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F159" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5932,10 +5926,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F160" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -5961,10 +5955,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F161" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -5990,10 +5984,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F162" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6019,10 +6013,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F163" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6048,10 +6042,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F164" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6077,10 +6071,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F165" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6106,10 +6100,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F166" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6135,10 +6129,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F167" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6164,10 +6158,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F168" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6193,10 +6187,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F169" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6222,10 +6216,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F170" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6251,10 +6245,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F171" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6280,10 +6274,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F172" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6309,10 +6303,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F173" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6338,10 +6332,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F174" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6367,10 +6361,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F175" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6396,10 +6390,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F176" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6425,10 +6419,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F177" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6454,10 +6448,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F178" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6483,10 +6477,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F179" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6512,10 +6506,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F180" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6541,10 +6535,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F181" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6570,10 +6564,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F182" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6599,10 +6593,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F183" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6628,10 +6622,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F184" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6657,10 +6651,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F185" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6686,10 +6680,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F186" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6715,10 +6709,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F187" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6744,10 +6738,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F188" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6773,10 +6767,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F189" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6802,10 +6796,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F190" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -6831,10 +6825,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F191" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -6860,10 +6854,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F192" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -6889,10 +6883,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F193" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -6918,10 +6912,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F194" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -6947,10 +6941,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F195" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
